--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,19 +4,58 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>CPU baseline</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>block_tiling(OpenMP)</t>
+  </si>
+  <si>
+    <t>block_tiling(MPI+OpenMP)</t>
+  </si>
+  <si>
+    <t>DCU</t>
+  </si>
+  <si>
+    <t>DCU_flat</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -941,14 +980,220 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.8053097345133" customWidth="1"/>
+    <col min="2" max="2" width="12.8141592920354" customWidth="1"/>
+    <col min="3" max="3" width="17.6548672566372" customWidth="1"/>
+    <col min="4" max="5" width="22.9026548672566" customWidth="1"/>
+    <col min="6" max="7" width="25.3628318584071" customWidth="1"/>
+    <col min="8" max="8" width="21.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="14.3451327433628" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2">
+        <v>29831</v>
+      </c>
+      <c r="C2">
+        <v>3909</v>
+      </c>
+      <c r="D2">
+        <v>3818</v>
+      </c>
+      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>29535</v>
+      </c>
+      <c r="C3">
+        <v>3745</v>
+      </c>
+      <c r="D3">
+        <v>3704</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>29214</v>
+      </c>
+      <c r="C4">
+        <v>3810</v>
+      </c>
+      <c r="D4">
+        <v>3723</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>29861</v>
+      </c>
+      <c r="C5">
+        <v>3612</v>
+      </c>
+      <c r="D5">
+        <v>3621</v>
+      </c>
+      <c r="E5">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>10606</v>
+      </c>
+      <c r="C10">
+        <v>6.5643</v>
+      </c>
+      <c r="D10">
+        <v>1.9948</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>10920</v>
+      </c>
+      <c r="C11">
+        <v>6.8172</v>
+      </c>
+      <c r="D11">
+        <v>2.0228</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>10924</v>
+      </c>
+      <c r="C12">
+        <v>6.5901</v>
+      </c>
+      <c r="D12">
+        <v>2.0183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>10761</v>
+      </c>
+      <c r="C13">
+        <v>6.6212</v>
+      </c>
+      <c r="D13">
+        <v>2.0021</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>10275</v>
+      </c>
+      <c r="C17">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>10267</v>
+      </c>
+      <c r="C18">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>10281</v>
+      </c>
+      <c r="C19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <f>AVERAGE(B17:B19)</f>
+        <v>10274.3333333333</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C17:C19)</f>
+        <v>162</v>
+      </c>
+      <c r="D21">
+        <f>B21/C21</f>
+        <v>63.4218106995885</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <f>STDEV(B17:B19)</f>
+        <v>7.02376916856849</v>
+      </c>
+      <c r="C22">
+        <f>STDEV(C17:C19)</f>
+        <v>3.60555127546399</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
